--- a/sub/saif/span.xlsx
+++ b/sub/saif/span.xlsx
@@ -350,31 +350,31 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Ram</t>
+          <t>Rajesh</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Rajesh</t>
+          <t>Vikas</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Vikas</t>
+          <t>Ramesh</t>
         </is>
       </c>
     </row>
@@ -384,7 +384,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ramesh</t>
+          <t>Dev</t>
         </is>
       </c>
     </row>
